--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tnc-Ptprb.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tnc-Ptprb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +98,6 @@
   </si>
   <si>
     <t>Ptprb</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.634738961182449</v>
+        <v>5.215822</v>
       </c>
       <c r="H2">
-        <v>0.634738961182449</v>
+        <v>15.647466</v>
       </c>
       <c r="I2">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753076</v>
       </c>
       <c r="J2">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>130.920977529944</v>
+        <v>146.5291443333333</v>
       </c>
       <c r="N2">
-        <v>130.920977529944</v>
+        <v>439.587433</v>
       </c>
       <c r="O2">
-        <v>0.9899088201946551</v>
+        <v>0.9876486023666144</v>
       </c>
       <c r="P2">
-        <v>0.9899088201946551</v>
+        <v>0.9876486023666142</v>
       </c>
       <c r="Q2">
-        <v>83.1006452743474</v>
+        <v>764.2699346549754</v>
       </c>
       <c r="R2">
-        <v>83.1006452743474</v>
+        <v>6878.429411894778</v>
       </c>
       <c r="S2">
-        <v>0.005300302330589641</v>
+        <v>0.03982016441605688</v>
       </c>
       <c r="T2">
-        <v>0.005300302330589641</v>
+        <v>0.03982016441605687</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.634738961182449</v>
+        <v>5.215822</v>
       </c>
       <c r="H3">
-        <v>0.634738961182449</v>
+        <v>15.647466</v>
       </c>
       <c r="I3">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753076</v>
       </c>
       <c r="J3">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.217249253378123</v>
+        <v>0.2506956666666667</v>
       </c>
       <c r="N3">
-        <v>0.217249253378123</v>
+        <v>0.7520870000000001</v>
       </c>
       <c r="O3">
-        <v>0.001642647008578286</v>
+        <v>0.001689760940932313</v>
       </c>
       <c r="P3">
-        <v>0.001642647008578286</v>
+        <v>0.001689760940932312</v>
       </c>
       <c r="Q3">
-        <v>0.1378965654068924</v>
+        <v>1.307583973504667</v>
       </c>
       <c r="R3">
-        <v>0.1378965654068924</v>
+        <v>11.768255761542</v>
       </c>
       <c r="S3">
-        <v>8.795280525121034E-06</v>
+        <v>6.812803494129683E-05</v>
       </c>
       <c r="T3">
-        <v>8.795280525121034E-06</v>
+        <v>6.812803494129679E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.634738961182449</v>
+        <v>5.215822</v>
       </c>
       <c r="H4">
-        <v>0.634738961182449</v>
+        <v>15.647466</v>
       </c>
       <c r="I4">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753076</v>
       </c>
       <c r="J4">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753075</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.413421698627415</v>
+        <v>0.04295533333333334</v>
       </c>
       <c r="N4">
-        <v>0.413421698627415</v>
+        <v>0.128866</v>
       </c>
       <c r="O4">
-        <v>0.003125929806302675</v>
+        <v>0.0002895313087637247</v>
       </c>
       <c r="P4">
-        <v>0.003125929806302675</v>
+        <v>0.0002895313087637246</v>
       </c>
       <c r="Q4">
-        <v>0.2624148595170489</v>
+        <v>0.2240473726173334</v>
       </c>
       <c r="R4">
-        <v>0.2624148595170489</v>
+        <v>2.016426353556</v>
       </c>
       <c r="S4">
-        <v>1.673727185736935E-05</v>
+        <v>1.167336671255474E-05</v>
       </c>
       <c r="T4">
-        <v>1.673727185736935E-05</v>
+        <v>1.167336671255473E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.634738961182449</v>
+        <v>5.215822</v>
       </c>
       <c r="H5">
-        <v>0.634738961182449</v>
+        <v>15.647466</v>
       </c>
       <c r="I5">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753076</v>
       </c>
       <c r="J5">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.703944012114477</v>
+        <v>0.04638100000000001</v>
       </c>
       <c r="N5">
-        <v>0.703944012114477</v>
+        <v>0.139143</v>
       </c>
       <c r="O5">
-        <v>0.005322602990463877</v>
+        <v>0.0003126212879682069</v>
       </c>
       <c r="P5">
-        <v>0.005322602990463877</v>
+        <v>0.0003126212879682068</v>
       </c>
       <c r="Q5">
-        <v>0.4468206909801484</v>
+        <v>0.241915040182</v>
       </c>
       <c r="R5">
-        <v>0.4468206909801484</v>
+        <v>2.177235361638</v>
       </c>
       <c r="S5">
-        <v>2.849899350286788E-05</v>
+        <v>1.260431195571372E-05</v>
       </c>
       <c r="T5">
-        <v>2.849899350286788E-05</v>
+        <v>1.260431195571371E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>83.6702630614527</v>
+        <v>5.215822</v>
       </c>
       <c r="H6">
-        <v>83.6702630614527</v>
+        <v>15.647466</v>
       </c>
       <c r="I6">
-        <v>0.7057996300226143</v>
+        <v>0.04031814991753076</v>
       </c>
       <c r="J6">
-        <v>0.7057996300226143</v>
+        <v>0.04031814991753075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>130.920977529944</v>
+        <v>0.517643</v>
       </c>
       <c r="N6">
-        <v>130.920977529944</v>
+        <v>1.552929</v>
       </c>
       <c r="O6">
-        <v>0.9899088201946551</v>
+        <v>0.003489062792258176</v>
       </c>
       <c r="P6">
-        <v>0.9899088201946551</v>
+        <v>0.003489062792258176</v>
       </c>
       <c r="Q6">
-        <v>10954.19263019295</v>
+        <v>2.699933747546</v>
       </c>
       <c r="R6">
-        <v>10954.19263019295</v>
+        <v>24.299403727914</v>
       </c>
       <c r="S6">
-        <v>0.6986772790495102</v>
+        <v>0.0001406725567299436</v>
       </c>
       <c r="T6">
-        <v>0.6986772790495102</v>
+        <v>0.0001406725567299436</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>83.6702630614527</v>
+        <v>5.215822</v>
       </c>
       <c r="H7">
-        <v>83.6702630614527</v>
+        <v>15.647466</v>
       </c>
       <c r="I7">
-        <v>0.7057996300226143</v>
+        <v>0.04031814991753076</v>
       </c>
       <c r="J7">
-        <v>0.7057996300226143</v>
+        <v>0.04031814991753075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.217249253378123</v>
+        <v>0.9747983333333333</v>
       </c>
       <c r="N7">
-        <v>0.217249253378123</v>
+        <v>2.924395</v>
       </c>
       <c r="O7">
-        <v>0.001642647008578286</v>
+        <v>0.00657042130346323</v>
       </c>
       <c r="P7">
-        <v>0.001642647008578286</v>
+        <v>0.006570421303463229</v>
       </c>
       <c r="Q7">
-        <v>18.17730218005174</v>
+        <v>5.084374592563333</v>
       </c>
       <c r="R7">
-        <v>18.17730218005174</v>
+        <v>45.75937133307</v>
       </c>
       <c r="S7">
-        <v>0.001159379650912308</v>
+        <v>0.0002649072311343684</v>
       </c>
       <c r="T7">
-        <v>0.001159379650912308</v>
+        <v>0.0002649072311343683</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>83.6702630614527</v>
+        <v>84.97076433333332</v>
       </c>
       <c r="H8">
-        <v>83.6702630614527</v>
+        <v>254.912293</v>
       </c>
       <c r="I8">
-        <v>0.7057996300226143</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="J8">
-        <v>0.7057996300226143</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.413421698627415</v>
+        <v>146.5291443333333</v>
       </c>
       <c r="N8">
-        <v>0.413421698627415</v>
+        <v>439.587433</v>
       </c>
       <c r="O8">
-        <v>0.003125929806302675</v>
+        <v>0.9876486023666144</v>
       </c>
       <c r="P8">
-        <v>0.003125929806302675</v>
+        <v>0.9876486023666142</v>
       </c>
       <c r="Q8">
-        <v>34.59110227946843</v>
+        <v>12450.69339111265</v>
       </c>
       <c r="R8">
-        <v>34.59110227946843</v>
+        <v>112056.2405200139</v>
       </c>
       <c r="S8">
-        <v>0.00220628010076509</v>
+        <v>0.6487088336817005</v>
       </c>
       <c r="T8">
-        <v>0.00220628010076509</v>
+        <v>0.6487088336817004</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,309 +962,1797 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>83.6702630614527</v>
+        <v>84.97076433333332</v>
       </c>
       <c r="H9">
-        <v>83.6702630614527</v>
+        <v>254.912293</v>
       </c>
       <c r="I9">
-        <v>0.7057996300226143</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="J9">
-        <v>0.7057996300226143</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.703944012114477</v>
+        <v>0.2506956666666667</v>
       </c>
       <c r="N9">
-        <v>0.703944012114477</v>
+        <v>0.7520870000000001</v>
       </c>
       <c r="O9">
-        <v>0.005322602990463877</v>
+        <v>0.001689760940932313</v>
       </c>
       <c r="P9">
-        <v>0.005322602990463877</v>
+        <v>0.001689760940932312</v>
       </c>
       <c r="Q9">
-        <v>58.89918067415274</v>
+        <v>21.30180241172122</v>
       </c>
       <c r="R9">
-        <v>58.89918067415274</v>
+        <v>191.716221705491</v>
       </c>
       <c r="S9">
-        <v>0.003756691221426664</v>
+        <v>0.001109871311078106</v>
       </c>
       <c r="T9">
-        <v>0.003756691221426664</v>
+        <v>0.001109871311078106</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.2417632381682</v>
+        <v>84.97076433333332</v>
       </c>
       <c r="H10">
-        <v>34.2417632381682</v>
+        <v>254.912293</v>
       </c>
       <c r="I10">
-        <v>0.2888460361009108</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="J10">
-        <v>0.2888460361009108</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>130.920977529944</v>
+        <v>0.04295533333333334</v>
       </c>
       <c r="N10">
-        <v>130.920977529944</v>
+        <v>0.128866</v>
       </c>
       <c r="O10">
-        <v>0.9899088201946551</v>
+        <v>0.0002895313087637247</v>
       </c>
       <c r="P10">
-        <v>0.9899088201946551</v>
+        <v>0.0002895313087637246</v>
       </c>
       <c r="Q10">
-        <v>4482.965115489881</v>
+        <v>3.649947505526444</v>
       </c>
       <c r="R10">
-        <v>4482.965115489881</v>
+        <v>32.849527549738</v>
       </c>
       <c r="S10">
-        <v>0.2859312388145553</v>
+        <v>0.0001901703876990178</v>
       </c>
       <c r="T10">
-        <v>0.2859312388145553</v>
+        <v>0.0001901703876990178</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.2417632381682</v>
+        <v>84.97076433333332</v>
       </c>
       <c r="H11">
-        <v>34.2417632381682</v>
+        <v>254.912293</v>
       </c>
       <c r="I11">
-        <v>0.2888460361009108</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="J11">
-        <v>0.2888460361009108</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.217249253378123</v>
+        <v>0.04638100000000001</v>
       </c>
       <c r="N11">
-        <v>0.217249253378123</v>
+        <v>0.139143</v>
       </c>
       <c r="O11">
-        <v>0.001642647008578286</v>
+        <v>0.0003126212879682069</v>
       </c>
       <c r="P11">
-        <v>0.001642647008578286</v>
+        <v>0.0003126212879682068</v>
       </c>
       <c r="Q11">
-        <v>7.4389974978425</v>
+        <v>3.941029020544333</v>
       </c>
       <c r="R11">
-        <v>7.4389974978425</v>
+        <v>35.469261184899</v>
       </c>
       <c r="S11">
-        <v>0.0004744720771408565</v>
+        <v>0.0002053363824096693</v>
       </c>
       <c r="T11">
-        <v>0.0004744720771408565</v>
+        <v>0.0002053363824096692</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.2417632381682</v>
+        <v>84.97076433333332</v>
       </c>
       <c r="H12">
-        <v>34.2417632381682</v>
+        <v>254.912293</v>
       </c>
       <c r="I12">
-        <v>0.2888460361009108</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="J12">
-        <v>0.2888460361009108</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.413421698627415</v>
+        <v>0.517643</v>
       </c>
       <c r="N12">
-        <v>0.413421698627415</v>
+        <v>1.552929</v>
       </c>
       <c r="O12">
-        <v>0.003125929806302675</v>
+        <v>0.003489062792258176</v>
       </c>
       <c r="P12">
-        <v>0.003125929806302675</v>
+        <v>0.003489062792258176</v>
       </c>
       <c r="Q12">
-        <v>14.15628792192127</v>
+        <v>43.98452136179966</v>
       </c>
       <c r="R12">
-        <v>14.15628792192127</v>
+        <v>395.860692256197</v>
       </c>
       <c r="S12">
-        <v>0.0009029124336802153</v>
+        <v>0.002291691446921981</v>
       </c>
       <c r="T12">
-        <v>0.0009029124336802153</v>
+        <v>0.002291691446921981</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>84.97076433333332</v>
+      </c>
+      <c r="H13">
+        <v>254.912293</v>
+      </c>
+      <c r="I13">
+        <v>0.6568214971673704</v>
+      </c>
+      <c r="J13">
+        <v>0.6568214971673704</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.9747983333333333</v>
+      </c>
+      <c r="N13">
+        <v>2.924395</v>
+      </c>
+      <c r="O13">
+        <v>0.00657042130346323</v>
+      </c>
+      <c r="P13">
+        <v>0.006570421303463229</v>
+      </c>
+      <c r="Q13">
+        <v>82.82935945419277</v>
+      </c>
+      <c r="R13">
+        <v>745.464235087735</v>
+      </c>
+      <c r="S13">
+        <v>0.004315593957561104</v>
+      </c>
+      <c r="T13">
+        <v>0.004315593957561104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.03355766666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.100673</v>
+      </c>
+      <c r="I14">
+        <v>0.0002593997716082319</v>
+      </c>
+      <c r="J14">
+        <v>0.0002593997716082318</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>146.5291443333333</v>
+      </c>
+      <c r="N14">
+        <v>439.587433</v>
+      </c>
+      <c r="O14">
+        <v>0.9876486023666144</v>
+      </c>
+      <c r="P14">
+        <v>0.9876486023666142</v>
+      </c>
+      <c r="Q14">
+        <v>4.917176182489889</v>
+      </c>
+      <c r="R14">
+        <v>44.254585642409</v>
+      </c>
+      <c r="S14">
+        <v>0.0002561958218830892</v>
+      </c>
+      <c r="T14">
+        <v>0.0002561958218830891</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.03355766666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.100673</v>
+      </c>
+      <c r="I15">
+        <v>0.0002593997716082319</v>
+      </c>
+      <c r="J15">
+        <v>0.0002593997716082318</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.2506956666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.7520870000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.001689760940932313</v>
+      </c>
+      <c r="P15">
+        <v>0.001689760940932312</v>
+      </c>
+      <c r="Q15">
+        <v>0.008412761616777779</v>
+      </c>
+      <c r="R15">
+        <v>0.07571485455100001</v>
+      </c>
+      <c r="S15">
+        <v>4.38323602150353E-07</v>
+      </c>
+      <c r="T15">
+        <v>4.383236021503528E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.03355766666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.100673</v>
+      </c>
+      <c r="I16">
+        <v>0.0002593997716082319</v>
+      </c>
+      <c r="J16">
+        <v>0.0002593997716082318</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.04295533333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.128866</v>
+      </c>
+      <c r="O16">
+        <v>0.0002895313087637247</v>
+      </c>
+      <c r="P16">
+        <v>0.0002895313087637246</v>
+      </c>
+      <c r="Q16">
+        <v>0.001441480757555556</v>
+      </c>
+      <c r="R16">
+        <v>0.012973326818</v>
+      </c>
+      <c r="S16">
+        <v>7.510435536674266E-08</v>
+      </c>
+      <c r="T16">
+        <v>7.510435536674263E-08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.03355766666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.100673</v>
+      </c>
+      <c r="I17">
+        <v>0.0002593997716082319</v>
+      </c>
+      <c r="J17">
+        <v>0.0002593997716082318</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.04638100000000001</v>
+      </c>
+      <c r="N17">
+        <v>0.139143</v>
+      </c>
+      <c r="O17">
+        <v>0.0003126212879682069</v>
+      </c>
+      <c r="P17">
+        <v>0.0003126212879682068</v>
+      </c>
+      <c r="Q17">
+        <v>0.001556438137666667</v>
+      </c>
+      <c r="R17">
+        <v>0.014007943239</v>
+      </c>
+      <c r="S17">
+        <v>8.109389069882415E-08</v>
+      </c>
+      <c r="T17">
+        <v>8.109389069882412E-08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.03355766666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.100673</v>
+      </c>
+      <c r="I18">
+        <v>0.0002593997716082319</v>
+      </c>
+      <c r="J18">
+        <v>0.0002593997716082318</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.517643</v>
+      </c>
+      <c r="N18">
+        <v>1.552929</v>
+      </c>
+      <c r="O18">
+        <v>0.003489062792258176</v>
+      </c>
+      <c r="P18">
+        <v>0.003489062792258176</v>
+      </c>
+      <c r="Q18">
+        <v>0.01737089124633333</v>
+      </c>
+      <c r="R18">
+        <v>0.156338021217</v>
+      </c>
+      <c r="S18">
+        <v>9.050620914385508E-07</v>
+      </c>
+      <c r="T18">
+        <v>9.050620914385505E-07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>34.2417632381682</v>
-      </c>
-      <c r="H13">
-        <v>34.2417632381682</v>
-      </c>
-      <c r="I13">
-        <v>0.2888460361009108</v>
-      </c>
-      <c r="J13">
-        <v>0.2888460361009108</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.703944012114477</v>
-      </c>
-      <c r="N13">
-        <v>0.703944012114477</v>
-      </c>
-      <c r="O13">
-        <v>0.005322602990463877</v>
-      </c>
-      <c r="P13">
-        <v>0.005322602990463877</v>
-      </c>
-      <c r="Q13">
-        <v>24.10428419575013</v>
-      </c>
-      <c r="R13">
-        <v>24.10428419575013</v>
-      </c>
-      <c r="S13">
-        <v>0.001537412775534345</v>
-      </c>
-      <c r="T13">
-        <v>0.001537412775534345</v>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.03355766666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.100673</v>
+      </c>
+      <c r="I19">
+        <v>0.0002593997716082319</v>
+      </c>
+      <c r="J19">
+        <v>0.0002593997716082318</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.9747983333333333</v>
+      </c>
+      <c r="N19">
+        <v>2.924395</v>
+      </c>
+      <c r="O19">
+        <v>0.00657042130346323</v>
+      </c>
+      <c r="P19">
+        <v>0.006570421303463229</v>
+      </c>
+      <c r="Q19">
+        <v>0.03271195753722222</v>
+      </c>
+      <c r="R19">
+        <v>0.294407617835</v>
+      </c>
+      <c r="S19">
+        <v>1.704365785488223E-06</v>
+      </c>
+      <c r="T19">
+        <v>1.704365785488223E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1030903333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.309271</v>
+      </c>
+      <c r="I20">
+        <v>0.0007968852300522433</v>
+      </c>
+      <c r="J20">
+        <v>0.0007968852300522432</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>146.5291443333333</v>
+      </c>
+      <c r="N20">
+        <v>439.587433</v>
+      </c>
+      <c r="O20">
+        <v>0.9876486023666144</v>
+      </c>
+      <c r="P20">
+        <v>0.9876486023666142</v>
+      </c>
+      <c r="Q20">
+        <v>15.10573833237144</v>
+      </c>
+      <c r="R20">
+        <v>135.951644991343</v>
+      </c>
+      <c r="S20">
+        <v>0.0007870425837076962</v>
+      </c>
+      <c r="T20">
+        <v>0.0007870425837076958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1030903333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.309271</v>
+      </c>
+      <c r="I21">
+        <v>0.0007968852300522433</v>
+      </c>
+      <c r="J21">
+        <v>0.0007968852300522432</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.2506956666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.7520870000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.001689760940932313</v>
+      </c>
+      <c r="P21">
+        <v>0.001689760940932312</v>
+      </c>
+      <c r="Q21">
+        <v>0.02584429984188889</v>
+      </c>
+      <c r="R21">
+        <v>0.232598698577</v>
+      </c>
+      <c r="S21">
+        <v>1.346545536148141E-06</v>
+      </c>
+      <c r="T21">
+        <v>1.346545536148141E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1030903333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.309271</v>
+      </c>
+      <c r="I22">
+        <v>0.0007968852300522433</v>
+      </c>
+      <c r="J22">
+        <v>0.0007968852300522432</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.04295533333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.128866</v>
+      </c>
+      <c r="O22">
+        <v>0.0002895313087637247</v>
+      </c>
+      <c r="P22">
+        <v>0.0002895313087637246</v>
+      </c>
+      <c r="Q22">
+        <v>0.004428279631777779</v>
+      </c>
+      <c r="R22">
+        <v>0.03985451668600001</v>
+      </c>
+      <c r="S22">
+        <v>2.307232235915078E-07</v>
+      </c>
+      <c r="T22">
+        <v>2.307232235915078E-07</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1030903333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.309271</v>
+      </c>
+      <c r="I23">
+        <v>0.0007968852300522433</v>
+      </c>
+      <c r="J23">
+        <v>0.0007968852300522432</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.04638100000000001</v>
+      </c>
+      <c r="N23">
+        <v>0.139143</v>
+      </c>
+      <c r="O23">
+        <v>0.0003126212879682069</v>
+      </c>
+      <c r="P23">
+        <v>0.0003126212879682068</v>
+      </c>
+      <c r="Q23">
+        <v>0.004781432750333334</v>
+      </c>
+      <c r="R23">
+        <v>0.043032894753</v>
+      </c>
+      <c r="S23">
+        <v>2.491232869817731E-07</v>
+      </c>
+      <c r="T23">
+        <v>2.49123286981773E-07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1030903333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.309271</v>
+      </c>
+      <c r="I24">
+        <v>0.0007968852300522433</v>
+      </c>
+      <c r="J24">
+        <v>0.0007968852300522432</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.517643</v>
+      </c>
+      <c r="N24">
+        <v>1.552929</v>
+      </c>
+      <c r="O24">
+        <v>0.003489062792258176</v>
+      </c>
+      <c r="P24">
+        <v>0.003489062792258176</v>
+      </c>
+      <c r="Q24">
+        <v>0.05336398941766667</v>
+      </c>
+      <c r="R24">
+        <v>0.480275904759</v>
+      </c>
+      <c r="S24">
+        <v>2.780382605875379E-06</v>
+      </c>
+      <c r="T24">
+        <v>2.780382605875378E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1030903333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.309271</v>
+      </c>
+      <c r="I25">
+        <v>0.0007968852300522433</v>
+      </c>
+      <c r="J25">
+        <v>0.0007968852300522432</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.9747983333333333</v>
+      </c>
+      <c r="N25">
+        <v>2.924395</v>
+      </c>
+      <c r="O25">
+        <v>0.00657042130346323</v>
+      </c>
+      <c r="P25">
+        <v>0.006570421303463229</v>
+      </c>
+      <c r="Q25">
+        <v>0.1004922851161111</v>
+      </c>
+      <c r="R25">
+        <v>0.9044305660450001</v>
+      </c>
+      <c r="S25">
+        <v>5.235871691950457E-06</v>
+      </c>
+      <c r="T25">
+        <v>5.235871691950455E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.008067</v>
+      </c>
+      <c r="H26">
+        <v>0.024201</v>
+      </c>
+      <c r="I26">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="J26">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>146.5291443333333</v>
+      </c>
+      <c r="N26">
+        <v>439.587433</v>
+      </c>
+      <c r="O26">
+        <v>0.9876486023666144</v>
+      </c>
+      <c r="P26">
+        <v>0.9876486023666142</v>
+      </c>
+      <c r="Q26">
+        <v>1.182050607337</v>
+      </c>
+      <c r="R26">
+        <v>10.638455466033</v>
+      </c>
+      <c r="S26">
+        <v>6.158746719967263E-05</v>
+      </c>
+      <c r="T26">
+        <v>6.158746719967262E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.008067</v>
+      </c>
+      <c r="H27">
+        <v>0.024201</v>
+      </c>
+      <c r="I27">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="J27">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.2506956666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.7520870000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.001689760940932313</v>
+      </c>
+      <c r="P27">
+        <v>0.001689760940932312</v>
+      </c>
+      <c r="Q27">
+        <v>0.002022361943</v>
+      </c>
+      <c r="R27">
+        <v>0.018201257487</v>
+      </c>
+      <c r="S27">
+        <v>1.053695578321962E-07</v>
+      </c>
+      <c r="T27">
+        <v>1.053695578321962E-07</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.008067</v>
+      </c>
+      <c r="H28">
+        <v>0.024201</v>
+      </c>
+      <c r="I28">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="J28">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.04295533333333334</v>
+      </c>
+      <c r="N28">
+        <v>0.128866</v>
+      </c>
+      <c r="O28">
+        <v>0.0002895313087637247</v>
+      </c>
+      <c r="P28">
+        <v>0.0002895313087637246</v>
+      </c>
+      <c r="Q28">
+        <v>0.000346520674</v>
+      </c>
+      <c r="R28">
+        <v>0.003118686066</v>
+      </c>
+      <c r="S28">
+        <v>1.805449826895532E-08</v>
+      </c>
+      <c r="T28">
+        <v>1.805449826895532E-08</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.008067</v>
+      </c>
+      <c r="H29">
+        <v>0.024201</v>
+      </c>
+      <c r="I29">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="J29">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.04638100000000001</v>
+      </c>
+      <c r="N29">
+        <v>0.139143</v>
+      </c>
+      <c r="O29">
+        <v>0.0003126212879682069</v>
+      </c>
+      <c r="P29">
+        <v>0.0003126212879682068</v>
+      </c>
+      <c r="Q29">
+        <v>0.000374155527</v>
+      </c>
+      <c r="R29">
+        <v>0.003367399743000001</v>
+      </c>
+      <c r="S29">
+        <v>1.949433560937136E-08</v>
+      </c>
+      <c r="T29">
+        <v>1.949433560937136E-08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.008067</v>
+      </c>
+      <c r="H30">
+        <v>0.024201</v>
+      </c>
+      <c r="I30">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="J30">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.517643</v>
+      </c>
+      <c r="N30">
+        <v>1.552929</v>
+      </c>
+      <c r="O30">
+        <v>0.003489062792258176</v>
+      </c>
+      <c r="P30">
+        <v>0.003489062792258176</v>
+      </c>
+      <c r="Q30">
+        <v>0.004175826081</v>
+      </c>
+      <c r="R30">
+        <v>0.037582434729</v>
+      </c>
+      <c r="S30">
+        <v>2.175698317811565E-07</v>
+      </c>
+      <c r="T30">
+        <v>2.175698317811565E-07</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.008067</v>
+      </c>
+      <c r="H31">
+        <v>0.024201</v>
+      </c>
+      <c r="I31">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="J31">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.9747983333333333</v>
+      </c>
+      <c r="N31">
+        <v>2.924395</v>
+      </c>
+      <c r="O31">
+        <v>0.00657042130346323</v>
+      </c>
+      <c r="P31">
+        <v>0.006570421303463229</v>
+      </c>
+      <c r="Q31">
+        <v>0.007863698155</v>
+      </c>
+      <c r="R31">
+        <v>0.070773283395</v>
+      </c>
+      <c r="S31">
+        <v>4.097161738956869E-07</v>
+      </c>
+      <c r="T31">
+        <v>4.097161738956869E-07</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>39.03529933333333</v>
+      </c>
+      <c r="H32">
+        <v>117.105898</v>
+      </c>
+      <c r="I32">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="J32">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>146.5291443333333</v>
+      </c>
+      <c r="N32">
+        <v>439.587433</v>
+      </c>
+      <c r="O32">
+        <v>0.9876486023666144</v>
+      </c>
+      <c r="P32">
+        <v>0.9876486023666142</v>
+      </c>
+      <c r="Q32">
+        <v>5719.809010108871</v>
+      </c>
+      <c r="R32">
+        <v>51478.28109097984</v>
+      </c>
+      <c r="S32">
+        <v>0.2980147783960667</v>
+      </c>
+      <c r="T32">
+        <v>0.2980147783960665</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>39.03529933333333</v>
+      </c>
+      <c r="H33">
+        <v>117.105898</v>
+      </c>
+      <c r="I33">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="J33">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.2506956666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.7520870000000001</v>
+      </c>
+      <c r="O33">
+        <v>0.001689760940932313</v>
+      </c>
+      <c r="P33">
+        <v>0.001689760940932312</v>
+      </c>
+      <c r="Q33">
+        <v>9.785980389902891</v>
+      </c>
+      <c r="R33">
+        <v>88.073823509126</v>
+      </c>
+      <c r="S33">
+        <v>0.0005098713562167792</v>
+      </c>
+      <c r="T33">
+        <v>0.000509871356216779</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>39.03529933333333</v>
+      </c>
+      <c r="H34">
+        <v>117.105898</v>
+      </c>
+      <c r="I34">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="J34">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.04295533333333334</v>
+      </c>
+      <c r="N34">
+        <v>0.128866</v>
+      </c>
+      <c r="O34">
+        <v>0.0002895313087637247</v>
+      </c>
+      <c r="P34">
+        <v>0.0002895313087637246</v>
+      </c>
+      <c r="Q34">
+        <v>1.676774294629778</v>
+      </c>
+      <c r="R34">
+        <v>15.090968651668</v>
+      </c>
+      <c r="S34">
+        <v>8.736367227492495E-05</v>
+      </c>
+      <c r="T34">
+        <v>8.736367227492491E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>39.03529933333333</v>
+      </c>
+      <c r="H35">
+        <v>117.105898</v>
+      </c>
+      <c r="I35">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="J35">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.04638100000000001</v>
+      </c>
+      <c r="N35">
+        <v>0.139143</v>
+      </c>
+      <c r="O35">
+        <v>0.0003126212879682069</v>
+      </c>
+      <c r="P35">
+        <v>0.0003126212879682068</v>
+      </c>
+      <c r="Q35">
+        <v>1.810496218379334</v>
+      </c>
+      <c r="R35">
+        <v>16.294465965414</v>
+      </c>
+      <c r="S35">
+        <v>9.433088208953394E-05</v>
+      </c>
+      <c r="T35">
+        <v>9.43308820895339E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>39.03529933333333</v>
+      </c>
+      <c r="H36">
+        <v>117.105898</v>
+      </c>
+      <c r="I36">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="J36">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.517643</v>
+      </c>
+      <c r="N36">
+        <v>1.552929</v>
+      </c>
+      <c r="O36">
+        <v>0.003489062792258176</v>
+      </c>
+      <c r="P36">
+        <v>0.003489062792258176</v>
+      </c>
+      <c r="Q36">
+        <v>20.20634945280467</v>
+      </c>
+      <c r="R36">
+        <v>181.857145075242</v>
+      </c>
+      <c r="S36">
+        <v>0.001052795774077157</v>
+      </c>
+      <c r="T36">
+        <v>0.001052795774077157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>39.03529933333333</v>
+      </c>
+      <c r="H37">
+        <v>117.105898</v>
+      </c>
+      <c r="I37">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="J37">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.9747983333333333</v>
+      </c>
+      <c r="N37">
+        <v>2.924395</v>
+      </c>
+      <c r="O37">
+        <v>0.00657042130346323</v>
+      </c>
+      <c r="P37">
+        <v>0.006570421303463229</v>
+      </c>
+      <c r="Q37">
+        <v>38.05154473130111</v>
+      </c>
+      <c r="R37">
+        <v>342.46390258171</v>
+      </c>
+      <c r="S37">
+        <v>0.001982570161116424</v>
+      </c>
+      <c r="T37">
+        <v>0.001982570161116423</v>
       </c>
     </row>
   </sheetData>
